--- a/Jogos_do_Dia/2022-12-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -653,10 +653,10 @@
         <v>4.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="N2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -704,7 +704,7 @@
         <v>3.18</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE2" t="n">
         <v>1.23</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="I3" t="n">
         <v>1.01</v>
@@ -763,10 +763,10 @@
         <v>3.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="N3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -814,7 +814,7 @@
         <v>1.72</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE3" t="n">
         <v>1.23</v>
@@ -915,13 +915,13 @@
         <v>2.96</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AD4" t="n">
         <v>1.27</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>3.84</v>
       </c>
       <c r="I5" t="n">
         <v>1.09</v>
@@ -983,10 +983,10 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="N5" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1025,28 +1025,28 @@
         <v>3.18</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>4.26</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.29</v>
       </c>
       <c r="H6" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="I6" t="n">
         <v>1.06</v>
@@ -1093,10 +1093,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="N6" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1135,25 +1135,25 @@
         <v>3.46</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1203,10 +1203,10 @@
         <v>4.57</v>
       </c>
       <c r="M7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.45</v>
+        <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>2.43</v>
       </c>
       <c r="M8" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="N8" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="O8" t="n">
         <v>1.57</v>
@@ -1450,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X9" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.97</v>
+        <v>2.62</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
         <v>3.1</v>
@@ -1533,10 +1533,10 @@
         <v>2.62</v>
       </c>
       <c r="M10" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="N10" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
@@ -1640,13 +1640,13 @@
         <v>1.5</v>
       </c>
       <c r="L11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="N11" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.57</v>
@@ -1670,43 +1670,43 @@
         <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
         <v>0.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="Y11" t="n">
         <v>1.33</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="I12" t="n">
         <v>1.06</v>
@@ -1753,10 +1753,10 @@
         <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="N12" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2125,13 +2125,13 @@
         <v>2.68</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AD15" t="n">
         <v>1.22</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="G20" t="n">
-        <v>4.75</v>
+        <v>3.69</v>
       </c>
       <c r="H20" t="n">
-        <v>8.5</v>
+        <v>5.62</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="N20" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H21" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="I21" t="n">
         <v>1.11</v>
@@ -2743,10 +2743,10 @@
         <v>2.63</v>
       </c>
       <c r="M21" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="N21" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O21" t="n">
         <v>1.49</v>
@@ -2785,28 +2785,28 @@
         <v>3.14</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="22">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="I22" t="n">
         <v>1.09</v>
@@ -2853,10 +2853,10 @@
         <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="N22" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2895,28 +2895,28 @@
         <v>2.75</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="23">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.25</v>
+        <v>3.07</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="H23" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="I23" t="n">
         <v>1.08</v>
@@ -2963,10 +2963,10 @@
         <v>2.95</v>
       </c>
       <c r="M23" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N23" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
@@ -3005,28 +3005,28 @@
         <v>3.31</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24">
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="H24" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="I24" t="n">
         <v>1.08</v>
@@ -3073,10 +3073,10 @@
         <v>2.87</v>
       </c>
       <c r="M24" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="N24" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3115,28 +3115,28 @@
         <v>2.88</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="25">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="H25" t="n">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="I25" t="n">
         <v>1.09</v>
@@ -3183,10 +3183,10 @@
         <v>2.7</v>
       </c>
       <c r="M25" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="N25" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -3225,28 +3225,28 @@
         <v>2.78</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="26">
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>4.32</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3293,22 +3293,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.7</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="G28" t="n">
-        <v>3.55</v>
+        <v>3.24</v>
       </c>
       <c r="H28" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I28" t="n">
         <v>1.04</v>
@@ -3513,10 +3513,10 @@
         <v>4.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="N28" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="G29" t="n">
-        <v>5.8</v>
+        <v>4.69</v>
       </c>
       <c r="H29" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="I29" t="n">
         <v>1.03</v>
@@ -3623,10 +3623,10 @@
         <v>4.2</v>
       </c>
       <c r="M29" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N29" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="O29" t="n">
         <v>1.28</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="G30" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="H30" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="I30" t="n">
         <v>1.03</v>
@@ -3733,10 +3733,10 @@
         <v>4.2</v>
       </c>
       <c r="M30" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G31" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="I31" t="n">
         <v>1.05</v>
@@ -3843,10 +3843,10 @@
         <v>3.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="N31" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.35</v>
+        <v>3.93</v>
       </c>
       <c r="G32" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="I32" t="n">
         <v>1.1</v>
@@ -3947,10 +3947,10 @@
         <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="L32" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="M32" t="n">
         <v>2.35</v>
@@ -3980,19 +3980,19 @@
         <v>1.28</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
         <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Y32" t="n">
         <v>1.76</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="AA32" t="n">
         <v>2.25</v>
@@ -4042,88 +4042,88 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M33" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="N33" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X33" t="n">
-        <v>0.89</v>
+        <v>1.39</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.82</v>
+        <v>0.61</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G34" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H34" t="n">
         <v>3</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.1</v>
       </c>
       <c r="I34" t="n">
         <v>1.11</v>
@@ -4173,10 +4173,10 @@
         <v>2.5</v>
       </c>
       <c r="M34" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.53</v>
@@ -4215,25 +4215,25 @@
         <v>2.93</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="G35" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="I35" t="n">
         <v>1.08</v>
@@ -4283,10 +4283,10 @@
         <v>2.95</v>
       </c>
       <c r="M35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N35" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O35" t="n">
         <v>1.4</v>
@@ -4325,28 +4325,28 @@
         <v>2.84</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="36">
@@ -4375,7 +4375,7 @@
         <v>4.5</v>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
         <v>1.75</v>
@@ -4393,10 +4393,10 @@
         <v>2.75</v>
       </c>
       <c r="M36" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N36" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O36" t="n">
         <v>1.48</v>
@@ -4435,28 +4435,28 @@
         <v>3.15</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE36" t="n">
         <v>1.8</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="37">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>4.48</v>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
+        <v>5.99</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="N37" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.1</v>
+        <v>3.72</v>
       </c>
       <c r="G38" t="n">
-        <v>3.45</v>
+        <v>3.21</v>
       </c>
       <c r="H38" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="I38" t="n">
         <v>1.05</v>
@@ -4613,10 +4613,10 @@
         <v>3.4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="N38" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="O38" t="n">
         <v>1.36</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3.76</v>
       </c>
       <c r="I39" t="n">
         <v>1.08</v>
@@ -4723,10 +4723,10 @@
         <v>2.95</v>
       </c>
       <c r="M39" t="n">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="N39" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="O39" t="n">
         <v>1.41</v>
@@ -4765,28 +4765,28 @@
         <v>3.28</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="40">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G41" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="I41" t="n">
         <v>1.12</v>
@@ -4937,10 +4937,10 @@
         <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="L41" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M41" t="n">
         <v>2.55</v>
@@ -4985,28 +4985,28 @@
         <v>3.1</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="42">
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I42" t="n">
         <v>1.11</v>
@@ -5047,16 +5047,16 @@
         <v>6.5</v>
       </c>
       <c r="K42" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L42" t="n">
         <v>2.4</v>
       </c>
       <c r="M42" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="N42" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="O42" t="n">
         <v>1.59</v>
@@ -5095,28 +5095,28 @@
         <v>2.79</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="43">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="G43" t="n">
-        <v>3.25</v>
+        <v>2.89</v>
       </c>
       <c r="H43" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="I43" t="n">
         <v>1.07</v>
@@ -5163,10 +5163,10 @@
         <v>2.95</v>
       </c>
       <c r="M43" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N43" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O43" t="n">
         <v>1.48</v>
@@ -5205,28 +5205,28 @@
         <v>3.35</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AE43" t="n">
         <v>1.93</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="I44" t="n">
         <v>1.03</v>
@@ -5273,10 +5273,10 @@
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="N44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
         <v>1.32</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>3.93</v>
       </c>
       <c r="I45" t="n">
         <v>1.07</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="N45" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="O45" t="n">
         <v>1.41</v>
@@ -5425,28 +5425,28 @@
         <v>3.4</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="46">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
         <v>1.13</v>
@@ -5487,16 +5487,16 @@
         <v>5.5</v>
       </c>
       <c r="K46" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="L46" t="n">
         <v>2.45</v>
       </c>
       <c r="M46" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="N46" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.57</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I47" t="n">
         <v>1.1</v>
@@ -5603,10 +5603,10 @@
         <v>2.75</v>
       </c>
       <c r="M47" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="N47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>

--- a/Jogos_do_Dia/2022-12-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -653,10 +653,10 @@
         <v>4.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="N2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="I3" t="n">
         <v>1.01</v>
@@ -763,10 +763,10 @@
         <v>3.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="G5" t="n">
-        <v>3.23</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.84</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
         <v>1.09</v>
@@ -983,10 +983,10 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.26</v>
+        <v>4.46</v>
       </c>
       <c r="G6" t="n">
-        <v>3.29</v>
+        <v>3.57</v>
       </c>
       <c r="H6" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="I6" t="n">
         <v>1.06</v>
@@ -1093,10 +1093,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N6" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1144,7 +1144,7 @@
         <v>1.43</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE6" t="n">
         <v>1.62</v>
@@ -1156,7 +1156,7 @@
         <v>2.54</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1203,10 +1203,10 @@
         <v>4.57</v>
       </c>
       <c r="M7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="N7" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.43</v>
       </c>
       <c r="G8" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="H8" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="K8" t="n">
         <v>1.54</v>
@@ -1313,10 +1313,10 @@
         <v>2.43</v>
       </c>
       <c r="M8" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="N8" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="O8" t="n">
         <v>1.57</v>
@@ -1331,13 +1331,13 @@
         <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
         <v>1.33</v>
@@ -1355,28 +1355,28 @@
         <v>2.98</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
         <v>1.5</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="I10" t="n">
         <v>1.1</v>
@@ -1536,7 +1536,7 @@
         <v>2.3</v>
       </c>
       <c r="N10" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G11" t="n">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="I11" t="n">
         <v>1.13</v>
@@ -1646,7 +1646,7 @@
         <v>2.45</v>
       </c>
       <c r="N11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O11" t="n">
         <v>1.57</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="I12" t="n">
         <v>1.06</v>
@@ -1753,10 +1753,10 @@
         <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="N12" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2615,10 +2615,10 @@
         <v>1.41</v>
       </c>
       <c r="G20" t="n">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>5.62</v>
+        <v>5.99</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N20" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -2684,7 +2684,7 @@
         <v>6.65</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE20" t="n">
         <v>1.51</v>
@@ -2696,7 +2696,7 @@
         <v>2.29</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="21">
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>2.29</v>
+        <v>2.23</v>
       </c>
       <c r="I21" t="n">
         <v>1.11</v>
@@ -2743,10 +2743,10 @@
         <v>2.63</v>
       </c>
       <c r="M21" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="N21" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O21" t="n">
         <v>1.49</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>3.12</v>
+        <v>3.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
         <v>1.09</v>
@@ -2853,10 +2853,10 @@
         <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.07</v>
+        <v>2.8</v>
       </c>
       <c r="G23" t="n">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="H23" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="I23" t="n">
         <v>1.08</v>
@@ -2963,10 +2963,10 @@
         <v>2.95</v>
       </c>
       <c r="M23" t="n">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="N23" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>3.09</v>
+        <v>2.97</v>
       </c>
       <c r="H24" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="I24" t="n">
         <v>1.08</v>
@@ -3073,10 +3073,10 @@
         <v>2.87</v>
       </c>
       <c r="M24" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="N24" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.63</v>
+        <v>2.46</v>
       </c>
       <c r="G25" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.48</v>
+        <v>2.73</v>
       </c>
       <c r="I25" t="n">
         <v>1.09</v>
@@ -3183,10 +3183,10 @@
         <v>2.7</v>
       </c>
       <c r="M25" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="N25" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -3272,31 +3272,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="G26" t="n">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.32</v>
+        <v>4.55</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M26" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="N26" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -3311,13 +3311,13 @@
         <v>1.7</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V26" t="n">
         <v>0.5</v>
@@ -3335,25 +3335,25 @@
         <v>2.65</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="G28" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
         <v>1.04</v>
@@ -3513,10 +3513,10 @@
         <v>4.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="N28" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="G29" t="n">
-        <v>4.69</v>
+        <v>6.2</v>
       </c>
       <c r="H29" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="I29" t="n">
         <v>1.03</v>
@@ -3623,10 +3623,10 @@
         <v>4.2</v>
       </c>
       <c r="M29" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="N29" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="O29" t="n">
         <v>1.28</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.48</v>
+        <v>4.2</v>
       </c>
       <c r="G30" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="H30" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="I30" t="n">
         <v>1.03</v>
@@ -3733,7 +3733,7 @@
         <v>4.2</v>
       </c>
       <c r="M30" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="N30" t="n">
         <v>2.15</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
         <v>1.05</v>
@@ -3843,10 +3843,10 @@
         <v>3.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="N31" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.93</v>
+        <v>3.36</v>
       </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>3.16</v>
       </c>
       <c r="H32" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="I32" t="n">
         <v>1.1</v>
@@ -3953,10 +3953,10 @@
         <v>2.48</v>
       </c>
       <c r="M32" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.49</v>
@@ -4013,7 +4013,7 @@
         <v>2.22</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
       <c r="H33" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="I33" t="n">
         <v>1.11</v>
@@ -4063,10 +4063,10 @@
         <v>2.45</v>
       </c>
       <c r="M33" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="N33" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O33" t="n">
         <v>1.54</v>
@@ -4114,7 +4114,7 @@
         <v>2.23</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE33" t="n">
         <v>1.6</v>
@@ -4126,7 +4126,7 @@
         <v>2.49</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="34">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="G34" t="n">
-        <v>2.87</v>
+        <v>2.97</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="I34" t="n">
         <v>1.11</v>
@@ -4173,10 +4173,10 @@
         <v>2.5</v>
       </c>
       <c r="M34" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N34" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O34" t="n">
         <v>1.53</v>
@@ -4236,7 +4236,7 @@
         <v>2.98</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="35">
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="I35" t="n">
         <v>1.08</v>
@@ -4283,10 +4283,10 @@
         <v>2.95</v>
       </c>
       <c r="M35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N35" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O35" t="n">
         <v>1.4</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H36" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="I36" t="n">
         <v>1.09</v>
@@ -4393,10 +4393,10 @@
         <v>2.75</v>
       </c>
       <c r="M36" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="N36" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O36" t="n">
         <v>1.48</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G37" t="n">
-        <v>4.48</v>
+        <v>4.9</v>
       </c>
       <c r="H37" t="n">
-        <v>5.99</v>
+        <v>5.4</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.72</v>
+        <v>3.86</v>
       </c>
       <c r="G38" t="n">
-        <v>3.21</v>
+        <v>3.63</v>
       </c>
       <c r="H38" t="n">
         <v>1.72</v>
@@ -4613,10 +4613,10 @@
         <v>3.4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N38" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="O38" t="n">
         <v>1.36</v>
@@ -4664,10 +4664,10 @@
         <v>1.52</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF38" t="n">
         <v>1.62</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="G39" t="n">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.76</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
         <v>1.08</v>
@@ -4723,10 +4723,10 @@
         <v>2.95</v>
       </c>
       <c r="M39" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="N39" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="O39" t="n">
         <v>1.41</v>
@@ -4812,52 +4812,52 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="G40" t="n">
-        <v>3.04</v>
+        <v>3.26</v>
       </c>
       <c r="H40" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="V40" t="n">
         <v>2</v>
@@ -4875,28 +4875,28 @@
         <v>3.02</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="41">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="H41" t="n">
-        <v>4.75</v>
+        <v>4.07</v>
       </c>
       <c r="I41" t="n">
         <v>1.12</v>
@@ -4937,16 +4937,16 @@
         <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="L41" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="M41" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O41" t="n">
         <v>1.64</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H42" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
         <v>1.11</v>
@@ -5047,16 +5047,16 @@
         <v>6.5</v>
       </c>
       <c r="K42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N42" t="n">
         <v>1.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.47</v>
       </c>
       <c r="O42" t="n">
         <v>1.59</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.28</v>
+        <v>2.84</v>
       </c>
       <c r="G43" t="n">
-        <v>2.89</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="I43" t="n">
         <v>1.07</v>
@@ -5163,10 +5163,10 @@
         <v>2.95</v>
       </c>
       <c r="M43" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="N43" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.48</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="G44" t="n">
-        <v>3.37</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="I44" t="n">
         <v>1.03</v>
@@ -5273,10 +5273,10 @@
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.32</v>
@@ -5315,13 +5315,13 @@
         <v>3.29</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AD44" t="n">
         <v>1.18</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="G45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
-        <v>3.93</v>
+        <v>3.55</v>
       </c>
       <c r="I45" t="n">
         <v>1.07</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="N45" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="O45" t="n">
         <v>1.41</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="G46" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I46" t="n">
         <v>1.13</v>
@@ -5493,7 +5493,7 @@
         <v>2.45</v>
       </c>
       <c r="M46" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N46" t="n">
         <v>1.5</v>
@@ -5535,28 +5535,28 @@
         <v>2.77</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="G47" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="I47" t="n">
         <v>1.1</v>
@@ -5603,10 +5603,10 @@
         <v>2.75</v>
       </c>
       <c r="M47" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="N47" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>
